--- a/DeepCGSR_triet/results_DigitalMusic.xlsx
+++ b/DeepCGSR_triet/results_DigitalMusic.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,82 +435,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9825</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5639</v>
+        <v>0.7019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9836</v>
+        <v>0.9823</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.6647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9825</v>
+        <v>0.9828</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5645</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.9802</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5291</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9808</v>
+        <v>0.982</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5294</v>
+        <v>0.6739000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9836</v>
+        <v>0.9828</v>
       </c>
       <c r="B7" t="n">
-        <v>0.577</v>
+        <v>0.6813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9836</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5481</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9848</v>
+        <v>0.9817</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9808</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5441</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9848</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.537</v>
+        <v>0.6758</v>
       </c>
     </row>
   </sheetData>
